--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>唯一标识</t>
   </si>
@@ -43,6 +43,9 @@
     <t>关卡事件</t>
   </si>
   <si>
+    <t>后置节点</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -55,9 +58,15 @@
     <t>EventType</t>
   </si>
   <si>
+    <t>NextUid</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>string+</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
   </si>
   <si>
     <t>Fight</t>
+  </si>
+  <si>
+    <t>4,5</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1023,7 +1035,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,50 +1048,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1090,10 +1114,13 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1104,10 +1131,13 @@
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1118,10 +1148,13 @@
         <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1132,10 +1165,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1146,10 +1182,13 @@
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1160,10 +1199,13 @@
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1174,10 +1216,13 @@
         <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1188,10 +1233,13 @@
         <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1202,10 +1250,13 @@
         <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1216,10 +1267,13 @@
         <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1230,7 +1284,10 @@
         <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>唯一标识</t>
   </si>
@@ -37,33 +37,42 @@
     <t>关卡uid</t>
   </si>
   <si>
+    <t>关卡序列</t>
+  </si>
+  <si>
+    <t>关卡事件</t>
+  </si>
+  <si>
+    <t>后置节点</t>
+  </si>
+  <si>
     <t>关卡节点Uid</t>
   </si>
   <si>
-    <t>关卡事件</t>
-  </si>
-  <si>
-    <t>后置节点</t>
-  </si>
-  <si>
     <t>Uid</t>
   </si>
   <si>
     <t>LevelUid</t>
   </si>
   <si>
+    <t>NodeIndex</t>
+  </si>
+  <si>
+    <t>EventType</t>
+  </si>
+  <si>
+    <t>NextUid</t>
+  </si>
+  <si>
     <t>PrefabUid</t>
   </si>
   <si>
-    <t>EventType</t>
-  </si>
-  <si>
-    <t>NextUid</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string+</t>
   </si>
   <si>
@@ -76,7 +85,7 @@
     <t>Fight</t>
   </si>
   <si>
-    <t>4,5</t>
+    <t>4;5</t>
   </si>
 </sst>
 </file>
@@ -1020,22 +1029,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,59 +1061,71 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1111,16 +1133,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1128,16 +1153,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1145,16 +1173,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1162,16 +1193,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1179,16 +1213,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1196,16 +1233,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1213,16 +1253,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1230,16 +1273,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1247,16 +1293,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1264,16 +1313,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1281,13 +1333,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>唯一标识</t>
   </si>
@@ -46,6 +46,9 @@
     <t>后置节点</t>
   </si>
   <si>
+    <t>前置节点</t>
+  </si>
+  <si>
     <t>关卡节点Uid</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>NextUid</t>
+  </si>
+  <si>
+    <t>PreUid</t>
   </si>
   <si>
     <t>PrefabUid</t>
@@ -770,13 +776,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1045,7 +1044,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,68 +1063,80 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1136,16 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1156,16 +1170,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1176,16 +1193,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1196,16 +1216,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1216,16 +1239,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1236,16 +1262,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1256,16 +1285,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1276,16 +1308,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
       </c>
       <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1296,16 +1331,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1316,16 +1354,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
       </c>
       <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1336,12 +1377,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
       <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
         <v>100</v>
       </c>
     </row>

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1380,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>10</v>

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>唯一标识</t>
   </si>
@@ -52,6 +52,9 @@
     <t>关卡节点Uid</t>
   </si>
   <si>
+    <t>底座预制体UID</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>PrefabUid</t>
+  </si>
+  <si>
+    <t>BottomPrefabUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1028,23 +1034,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,77 +1074,89 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1158,8 +1178,11 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1181,8 +1204,11 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1193,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1204,8 +1230,11 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1216,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1227,8 +1256,11 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1239,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1250,8 +1282,11 @@
       <c r="G9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1273,8 +1308,11 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1285,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -1296,8 +1334,11 @@
       <c r="G11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1308,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -1319,8 +1360,11 @@
       <c r="G12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1331,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1342,8 +1386,11 @@
       <c r="G13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1354,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
@@ -1365,8 +1412,11 @@
       <c r="G14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1377,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1387,6 +1437,9 @@
       </c>
       <c r="G15" s="1">
         <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1049,7 +1049,8 @@
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>唯一标识</t>
   </si>
@@ -55,6 +55,9 @@
     <t>底座预制体UID</t>
   </si>
   <si>
+    <t>成就预制体Uid</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>BottomPrefabUid</t>
+  </si>
+  <si>
+    <t>StarPrefabUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1034,26 +1040,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I6" sqref="I6:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,86 +1085,98 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1168,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1182,8 +1201,11 @@
       <c r="H5" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1208,8 +1230,11 @@
       <c r="H6" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1220,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1234,8 +1259,11 @@
       <c r="H7" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1246,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1260,8 +1288,11 @@
       <c r="H8" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1272,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1286,8 +1317,11 @@
       <c r="H9" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1298,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1312,8 +1346,11 @@
       <c r="H10" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1324,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -1338,8 +1375,11 @@
       <c r="H11" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1350,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -1364,8 +1404,11 @@
       <c r="H12" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1376,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1390,8 +1433,11 @@
       <c r="H13" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1402,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
@@ -1416,8 +1462,11 @@
       <c r="H14" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1428,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1441,6 +1490,9 @@
       </c>
       <c r="H15" s="1">
         <v>1000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="21240" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>唯一标识</t>
   </si>
@@ -58,6 +58,9 @@
     <t>成就预制体Uid</t>
   </si>
   <si>
+    <t>阵型Uid</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>StarPrefabUid</t>
+  </si>
+  <si>
+    <t>FormationUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1040,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1056,11 +1062,12 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,95 +1095,107 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1187,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1204,8 +1223,11 @@
       <c r="I5" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1233,8 +1255,11 @@
       <c r="I6" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1245,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1262,8 +1287,11 @@
       <c r="I7" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1274,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1291,8 +1319,11 @@
       <c r="I8" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1303,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1320,8 +1351,11 @@
       <c r="I9" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1349,8 +1383,11 @@
       <c r="I10" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1361,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -1378,8 +1415,11 @@
       <c r="I11" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1390,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -1407,8 +1447,11 @@
       <c r="I12" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1419,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1436,8 +1479,11 @@
       <c r="I13" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1448,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
@@ -1465,8 +1511,11 @@
       <c r="I14" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1477,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1493,6 +1542,9 @@
       </c>
       <c r="I15" s="1">
         <v>1001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>唯一标识</t>
   </si>
@@ -61,6 +61,9 @@
     <t>阵型Uid</t>
   </si>
   <si>
+    <t>场景预制体Uid</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>FormationUid</t>
+  </si>
+  <si>
+    <t>ScenePrefabUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1046,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1064,10 +1070,11 @@
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1098,104 +1105,116 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1206,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1226,8 +1245,11 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1258,8 +1280,11 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1270,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1290,8 +1315,11 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1302,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1322,8 +1350,11 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1334,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1354,8 +1385,11 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1366,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1386,8 +1420,11 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1398,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -1418,8 +1455,11 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1430,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -1450,8 +1490,11 @@
       <c r="J12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1462,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1482,8 +1525,11 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1494,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
@@ -1514,8 +1560,11 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1526,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1545,6 +1594,9 @@
       </c>
       <c r="J15" s="1">
         <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>阵型Uid</t>
   </si>
   <si>
-    <t>场景预制体Uid</t>
+    <t>场景Uid</t>
   </si>
   <si>
     <t>Uid</t>
@@ -94,7 +94,7 @@
     <t>FormationUid</t>
   </si>
   <si>
-    <t>ScenePrefabUid</t>
+    <t>CombatSceneUid</t>
   </si>
   <si>
     <t>string</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1070,7 +1070,7 @@
     <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1184,19 +1184,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -1208,10 +1208,10 @@
         <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1245,8 +1245,8 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>1002</v>
+      <c r="K5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,8 +1280,8 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
-        <v>1002</v>
+      <c r="K6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,8 +1315,8 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="1">
-        <v>1002</v>
+      <c r="K7" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1350,8 +1350,8 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1">
-        <v>1002</v>
+      <c r="K8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1385,8 +1385,8 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1">
-        <v>1002</v>
+      <c r="K9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1420,8 +1420,8 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="1">
-        <v>1002</v>
+      <c r="K10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1455,8 +1455,8 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
-        <v>1002</v>
+      <c r="K11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1490,8 +1490,8 @@
       <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1">
-        <v>1002</v>
+      <c r="K12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1525,8 +1525,8 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1">
-        <v>1002</v>
+      <c r="K13" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1560,8 +1560,8 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
-        <v>1002</v>
+      <c r="K14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1595,8 +1595,8 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
-        <v>1002</v>
+      <c r="K15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excels/LevelsNodes.xlsx
+++ b/Excels/LevelsNodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>唯一标识</t>
   </si>
@@ -64,6 +64,9 @@
     <t>场景Uid</t>
   </si>
   <si>
+    <t>节点成就</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>CombatSceneUid</t>
   </si>
   <si>
+    <t>AchievementUid</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>Fight</t>
+  </si>
+  <si>
+    <t>1;2;1</t>
   </si>
   <si>
     <t>4;5</t>
@@ -1052,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1071,10 +1080,11 @@
     <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1108,113 +1118,125 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1225,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1248,8 +1270,11 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1260,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1283,8 +1308,11 @@
       <c r="K6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1295,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1318,8 +1346,11 @@
       <c r="K7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1330,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1353,8 +1384,11 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1365,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1388,8 +1422,11 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1400,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -1423,8 +1460,11 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1435,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -1458,8 +1498,11 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1470,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -1493,8 +1536,11 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1505,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1528,8 +1574,11 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1540,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>11</v>
@@ -1563,8 +1612,11 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1575,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1597,6 +1649,9 @@
       </c>
       <c r="K15" s="2">
         <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1">
